--- a/Porewater/Sulfide/Synoptic_CB/2025/July/Raw Data/20250813_COMPASS_H2S_STD.xlsx
+++ b/Porewater/Sulfide/Synoptic_CB/2025/July/Raw Data/20250813_COMPASS_H2S_STD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\microplate\Desktop\BioGeoChem_Microplates\COMPASS\H2S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sinet-my.sharepoint.com/personal/readz_si_edu1/Documents/synoptic-discrete-data/Porewater/Sulfide/Synoptic_CB/2025/July/Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C316754A-D40D-42CA-8D26-B34D22B7A270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C316754A-D40D-42CA-8D26-B34D22B7A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9C8A54-3598-479E-A1A7-62AB24FCF369}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="11640" xr2:uid="{12A7E26E-75D1-4107-850A-CFFF5721C329}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{12A7E26E-75D1-4107-850A-CFFF5721C329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1100,15 +1100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>277812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582612</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1137,9 +1137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1177,7 +1177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1283,7 +1283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1425,7 +1425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1436,12 +1436,12 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:N29"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>0</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.13633333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>12.5</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0.2223333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>50</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0.65566666666666673</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>100</v>
       </c>
@@ -1886,13 +1886,13 @@
         <v>1.161</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17">
         <f t="shared" si="0"/>
         <v>1.1403333333333332</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18">
         <f t="shared" si="0"/>
         <v>1.1476666666666666</v>
